--- a/Experiments/230309_MT/230207_plasmids_sp_updated.xlsx
+++ b/Experiments/230309_MT/230207_plasmids_sp_updated.xlsx
@@ -495,7 +495,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>39.55,</t>
+          <t>40.225,</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>56.7399999999998,</t>
+          <t>56.9899999999998,</t>
         </is>
       </c>
     </row>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>39.6,</t>
+          <t>39.650000000000006,</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>29.575,</t>
+          <t>29.75,</t>
         </is>
       </c>
     </row>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>37.525,</t>
+          <t>37.9,</t>
         </is>
       </c>
     </row>
@@ -1580,7 +1580,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>49.5,</t>
+          <t>49.7,</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>49.5,</t>
+          <t>49.7,</t>
         </is>
       </c>
     </row>
@@ -1642,7 +1642,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>49.1,</t>
+          <t>49.475,</t>
         </is>
       </c>
     </row>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>49.5,</t>
+          <t>49.7,</t>
         </is>
       </c>
     </row>
